--- a/05-ScenceManager/Simon_hitbox.xlsx
+++ b/05-ScenceManager/Simon_hitbox.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\gamedev-intro-tutorials-master\05-ScenceManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8D027A-2E9E-484E-8A3C-FEB50B62FE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FAEE89-FB5B-4764-85F4-0E6255679776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9828" yWindow="456" windowWidth="11484" windowHeight="11892" xr2:uid="{93395667-CA55-412F-A736-D5E1F8C29C24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{93395667-CA55-412F-A736-D5E1F8C29C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scene 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Scene 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>#jump/duck</t>
   </si>
@@ -136,6 +137,48 @@
   </si>
   <si>
     <t>#item-holywater</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>grid_x</t>
+  </si>
+  <si>
+    <t>grid_y</t>
+  </si>
+  <si>
+    <t>ani_set_id</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>nx</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>#Fire-pillar</t>
+  </si>
+  <si>
+    <t>#portal</t>
+  </si>
+  <si>
+    <t>#brick</t>
   </si>
 </sst>
 </file>
@@ -489,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9FC9A6-BF7F-4765-BE62-6894AD690097}">
   <dimension ref="A3:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2848,4 +2891,2455 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C540895-A041-4023-A958-DD4F1CAA7938}">
+  <dimension ref="A1:K58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>162</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>162</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>162</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>162</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>162</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>162</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>162</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>112</v>
+      </c>
+      <c r="F10">
+        <v>162</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>128</v>
+      </c>
+      <c r="F11">
+        <v>162</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>144</v>
+      </c>
+      <c r="F12">
+        <v>162</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>160</v>
+      </c>
+      <c r="F13">
+        <v>162</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>176</v>
+      </c>
+      <c r="F14">
+        <v>162</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>192</v>
+      </c>
+      <c r="F15">
+        <v>162</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>208</v>
+      </c>
+      <c r="F16">
+        <v>162</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>224</v>
+      </c>
+      <c r="F17">
+        <v>162</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>240</v>
+      </c>
+      <c r="F18">
+        <v>162</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>256</v>
+      </c>
+      <c r="F19">
+        <v>162</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>272</v>
+      </c>
+      <c r="F20">
+        <v>162</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>288</v>
+      </c>
+      <c r="F21">
+        <v>162</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>304</v>
+      </c>
+      <c r="F22">
+        <v>162</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>320</v>
+      </c>
+      <c r="F23">
+        <v>162</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>336</v>
+      </c>
+      <c r="F24">
+        <v>162</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>352</v>
+      </c>
+      <c r="F25">
+        <v>162</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>368</v>
+      </c>
+      <c r="F26">
+        <v>162</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>384</v>
+      </c>
+      <c r="F27">
+        <v>162</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>400</v>
+      </c>
+      <c r="F28">
+        <v>162</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>416</v>
+      </c>
+      <c r="F29">
+        <v>162</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>432</v>
+      </c>
+      <c r="F30">
+        <v>162</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>448</v>
+      </c>
+      <c r="F31">
+        <v>162</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>464</v>
+      </c>
+      <c r="F32">
+        <v>162</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>480</v>
+      </c>
+      <c r="F33">
+        <v>162</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>496</v>
+      </c>
+      <c r="F34">
+        <v>162</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>512</v>
+      </c>
+      <c r="F35">
+        <v>162</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>528</v>
+      </c>
+      <c r="F36">
+        <v>162</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>544</v>
+      </c>
+      <c r="F37">
+        <v>162</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>560</v>
+      </c>
+      <c r="F38">
+        <v>162</v>
+      </c>
+      <c r="G38">
+        <v>16</v>
+      </c>
+      <c r="H38">
+        <v>16</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>576</v>
+      </c>
+      <c r="F39">
+        <v>162</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>592</v>
+      </c>
+      <c r="F40">
+        <v>162</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>608</v>
+      </c>
+      <c r="F41">
+        <v>162</v>
+      </c>
+      <c r="G41">
+        <v>16</v>
+      </c>
+      <c r="H41">
+        <v>16</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>624</v>
+      </c>
+      <c r="F42">
+        <v>162</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>640</v>
+      </c>
+      <c r="F43">
+        <v>162</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>656</v>
+      </c>
+      <c r="F44">
+        <v>162</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>672</v>
+      </c>
+      <c r="F45">
+        <v>162</v>
+      </c>
+      <c r="G45">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>688</v>
+      </c>
+      <c r="F46">
+        <v>162</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>704</v>
+      </c>
+      <c r="F47">
+        <v>162</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>720</v>
+      </c>
+      <c r="F48">
+        <v>162</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>736</v>
+      </c>
+      <c r="F49">
+        <v>162</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>752</v>
+      </c>
+      <c r="F50">
+        <v>162</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>ROUNDDOWN(E52/272,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>88</v>
+      </c>
+      <c r="F52">
+        <v>130</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>ROUNDDOWN(E53/272,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>216</v>
+      </c>
+      <c r="F53">
+        <v>130</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>ROUNDDOWN(E54/272,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>344</v>
+      </c>
+      <c r="F54">
+        <v>130</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>ROUNDDOWN(E55/272,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>472</v>
+      </c>
+      <c r="F55">
+        <v>130</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>ROUNDDOWN(E56/272,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>600</v>
+      </c>
+      <c r="F56">
+        <v>130</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>680</v>
+      </c>
+      <c r="F58">
+        <v>130</v>
+      </c>
+      <c r="G58">
+        <v>700</v>
+      </c>
+      <c r="H58">
+        <v>152</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62B6360-C73A-4FCB-AB6B-6A07C40F8816}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>178</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>144</v>
+      </c>
+      <c r="F11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>160</v>
+      </c>
+      <c r="F12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>176</v>
+      </c>
+      <c r="F13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>192</v>
+      </c>
+      <c r="F14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>208</v>
+      </c>
+      <c r="F15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>224</v>
+      </c>
+      <c r="F16">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>224</v>
+      </c>
+      <c r="F17">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>224</v>
+      </c>
+      <c r="F18">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>224</v>
+      </c>
+      <c r="F19">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>224</v>
+      </c>
+      <c r="F20">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>224</v>
+      </c>
+      <c r="F21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>224</v>
+      </c>
+      <c r="F22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>224</v>
+      </c>
+      <c r="F23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>224</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>224</v>
+      </c>
+      <c r="F25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>224</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>224</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>208</v>
+      </c>
+      <c r="F28">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>176</v>
+      </c>
+      <c r="F29">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>192</v>
+      </c>
+      <c r="F30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>208</v>
+      </c>
+      <c r="F31">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/05-ScenceManager/Simon_hitbox.xlsx
+++ b/05-ScenceManager/Simon_hitbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\gamedev-intro-tutorials-master\05-ScenceManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FAEE89-FB5B-4764-85F4-0E6255679776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ACF0B0-29EC-4FB2-A8A4-1796CC6703ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{93395667-CA55-412F-A736-D5E1F8C29C24}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="136">
   <si>
     <t>#jump/duck</t>
   </si>
@@ -179,6 +179,270 @@
   </si>
   <si>
     <t>#brick</t>
+  </si>
+  <si>
+    <t>[SETTINGS]</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>#id</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>transparent_color_r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>[TEXTURES]</t>
+  </si>
+  <si>
+    <t>textures\simon1.png</t>
+  </si>
+  <si>
+    <t>textures\creeps.png</t>
+  </si>
+  <si>
+    <t>textures\items.png</t>
+  </si>
+  <si>
+    <t>Scene1\results.png</t>
+  </si>
+  <si>
+    <t>Scene2\results.png</t>
+  </si>
+  <si>
+    <t># id</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>texture_id</t>
+  </si>
+  <si>
+    <t>[SPRITES]</t>
+  </si>
+  <si>
+    <t>#Simon</t>
+  </si>
+  <si>
+    <t>#Idle/walk</t>
+  </si>
+  <si>
+    <t>#fire pillar</t>
+  </si>
+  <si>
+    <t>#ROSARY</t>
+  </si>
+  <si>
+    <t># ani_id</t>
+  </si>
+  <si>
+    <t>sprite1_id</t>
+  </si>
+  <si>
+    <t>time1</t>
+  </si>
+  <si>
+    <t>sprite2_id</t>
+  </si>
+  <si>
+    <t>time2</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>[ANIMATIONS]</t>
+  </si>
+  <si>
+    <t>#==SIMON==</t>
+  </si>
+  <si>
+    <t>#idle</t>
+  </si>
+  <si>
+    <t>#walk left</t>
+  </si>
+  <si>
+    <t>#attack left</t>
+  </si>
+  <si>
+    <t>#duck left</t>
+  </si>
+  <si>
+    <t>#duck attack left</t>
+  </si>
+  <si>
+    <t>#jump left</t>
+  </si>
+  <si>
+    <t>#==BRICK</t>
+  </si>
+  <si>
+    <t>#==WHIP</t>
+  </si>
+  <si>
+    <t>#DAGGER</t>
+  </si>
+  <si>
+    <t>#CROSS</t>
+  </si>
+  <si>
+    <t>#AXE</t>
+  </si>
+  <si>
+    <t>#HOLYWATER</t>
+  </si>
+  <si>
+    <t>#HITEFFECT</t>
+  </si>
+  <si>
+    <t>#==FIRE PILLAR</t>
+  </si>
+  <si>
+    <t>#SMALL HEART</t>
+  </si>
+  <si>
+    <t>#BIG HEART</t>
+  </si>
+  <si>
+    <t>#MONEY-BAG</t>
+  </si>
+  <si>
+    <t>#ORB</t>
+  </si>
+  <si>
+    <t>#WHIP-UPGRADE</t>
+  </si>
+  <si>
+    <t>#ITEM-DAGGER</t>
+  </si>
+  <si>
+    <t>#ITEM-AXE</t>
+  </si>
+  <si>
+    <t>#ITEM-HOLYWATER</t>
+  </si>
+  <si>
+    <t>#ITEM-CROSS</t>
+  </si>
+  <si>
+    <t>#ITEM-STOPWATCH</t>
+  </si>
+  <si>
+    <t>#WEAPON-UPGRADE</t>
+  </si>
+  <si>
+    <t>#CHICKEN</t>
+  </si>
+  <si>
+    <t>#BOTTLE</t>
+  </si>
+  <si>
+    <t>[ANIMATION_SETS]</t>
+  </si>
+  <si>
+    <t>#SIMON</t>
+  </si>
+  <si>
+    <t>#BRICK</t>
+  </si>
+  <si>
+    <t>#WHIP</t>
+  </si>
+  <si>
+    <t>#CANDLE</t>
+  </si>
+  <si>
+    <t>#FIREPILLAR</t>
+  </si>
+  <si>
+    <t>#scene list</t>
+  </si>
+  <si>
+    <t>[SCENES]</t>
+  </si>
+  <si>
+    <t>simon_scene1.txt</t>
+  </si>
+  <si>
+    <t>simon_scene2.txt</t>
+  </si>
+  <si>
+    <t>simon_scene3.txt</t>
+  </si>
+  <si>
+    <t>simon_scene4.txt</t>
+  </si>
+  <si>
+    <t>simon_scene5.txt</t>
+  </si>
+  <si>
+    <t>simon_scene6.txt</t>
+  </si>
+  <si>
+    <t>#simon</t>
+  </si>
+  <si>
+    <t>#items list:</t>
+  </si>
+  <si>
+    <t>SmallHeart</t>
+  </si>
+  <si>
+    <t>BigHeart</t>
+  </si>
+  <si>
+    <t>WhipUp</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>HolyWater</t>
+  </si>
+  <si>
+    <t>StopWatch</t>
+  </si>
+  <si>
+    <t>MoneyPouch</t>
+  </si>
+  <si>
+    <t>Rosary</t>
+  </si>
+  <si>
+    <t>WeaponUp</t>
+  </si>
+  <si>
+    <t>Vase</t>
+  </si>
+  <si>
+    <t>Orb</t>
   </si>
 </sst>
 </file>
@@ -231,6 +495,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9FC9A6-BF7F-4765-BE62-6894AD690097}">
-  <dimension ref="A3:I110"/>
+  <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,2351 +809,3065 @@
     <col min="4" max="5" width="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>116</v>
+      </c>
+      <c r="E6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>116</v>
+      </c>
+      <c r="E7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>116</v>
+      </c>
+      <c r="D8">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>1001</v>
       </c>
-      <c r="B3">
-        <f>I3-8</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>21</v>
       </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <f>B3+32</f>
+      <c r="D17">
         <v>33</v>
       </c>
-      <c r="G3">
-        <f>C3+E3</f>
+      <c r="E17">
         <v>53</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>1002</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B34" si="0">I4-8</f>
+      <c r="B18">
         <v>29</v>
-      </c>
-      <c r="C4">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F35" si="1">B4+32</f>
-        <v>61</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G67" si="2">C4+E4</f>
-        <v>53</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1003</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>32</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1005</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1006</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1007</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>203</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1008</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>32</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1009</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>228</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1010</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>267</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>299</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1011</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>300</v>
       </c>
       <c r="C18">
         <v>21</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>332</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B19">
-        <v>333</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>21</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1004</v>
+      </c>
+      <c r="B20">
+        <v>83</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>115</v>
+      </c>
+      <c r="E20">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1005</v>
+      </c>
+      <c r="B22">
+        <v>113</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>145</v>
+      </c>
+      <c r="E22">
+        <v>53</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1006</v>
+      </c>
+      <c r="B24">
+        <v>146</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>178</v>
+      </c>
+      <c r="E24">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1007</v>
+      </c>
+      <c r="B25">
+        <v>171</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>203</v>
+      </c>
+      <c r="E25">
+        <v>53</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1008</v>
+      </c>
+      <c r="B27">
+        <v>203</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>235</v>
+      </c>
+      <c r="E27">
+        <v>53</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1009</v>
+      </c>
+      <c r="B28">
+        <v>228</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>260</v>
+      </c>
+      <c r="E28">
+        <v>53</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1010</v>
+      </c>
+      <c r="B30">
+        <v>267</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>299</v>
+      </c>
+      <c r="E30">
+        <v>53</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1011</v>
+      </c>
+      <c r="B32">
+        <v>300</v>
+      </c>
+      <c r="C32">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>332</v>
+      </c>
+      <c r="E32">
+        <v>53</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1012</v>
+      </c>
+      <c r="B33">
+        <v>333</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
         <v>365</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
+      <c r="E33">
         <v>37</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>1013</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>78</v>
-      </c>
-      <c r="D21">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>32</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1014</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C22">
-        <v>78</v>
-      </c>
-      <c r="D22">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>32</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1015</v>
-      </c>
-      <c r="B23">
-        <v>69</v>
-      </c>
-      <c r="C23">
-        <v>78</v>
-      </c>
-      <c r="D23">
-        <v>24</v>
-      </c>
-      <c r="E23">
-        <v>32</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1016</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="C25">
-        <v>78</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>32</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>171</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1017</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="C26">
-        <v>78</v>
-      </c>
-      <c r="D26">
-        <v>16</v>
-      </c>
-      <c r="E26">
-        <v>32</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1018</v>
-      </c>
-      <c r="B27">
-        <f>I27</f>
-        <v>207</v>
-      </c>
-      <c r="C27">
-        <v>78</v>
-      </c>
-      <c r="D27">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>32</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>239</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1019</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="C29">
-        <v>78</v>
-      </c>
-      <c r="D29">
-        <v>24</v>
-      </c>
-      <c r="E29">
-        <v>32</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>317</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1020</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="C30">
-        <v>78</v>
-      </c>
-      <c r="D30">
-        <v>16</v>
-      </c>
-      <c r="E30">
-        <v>32</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>342</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>1021</v>
-      </c>
-      <c r="B31">
-        <f>I31</f>
-        <v>345</v>
-      </c>
-      <c r="C31">
-        <v>78</v>
-      </c>
-      <c r="D31">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>32</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>377</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>1022</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>431</v>
-      </c>
-      <c r="C33">
-        <v>78</v>
-      </c>
-      <c r="D33">
-        <v>24</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>463</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1023</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>464</v>
-      </c>
-      <c r="C34">
-        <v>78</v>
-      </c>
-      <c r="D34">
-        <v>16</v>
-      </c>
-      <c r="E34">
-        <v>32</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>496</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>1024</v>
-      </c>
       <c r="B35">
-        <f>I35</f>
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>78</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1014</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>78</v>
+      </c>
+      <c r="D36">
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <v>110</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1015</v>
+      </c>
+      <c r="B37">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>101</v>
+      </c>
+      <c r="E37">
+        <v>110</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1016</v>
+      </c>
+      <c r="B39">
+        <v>139</v>
+      </c>
+      <c r="C39">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>171</v>
+      </c>
+      <c r="E39">
+        <v>110</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1017</v>
+      </c>
+      <c r="B40">
+        <v>172</v>
+      </c>
+      <c r="C40">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <v>204</v>
+      </c>
+      <c r="E40">
+        <v>110</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1018</v>
+      </c>
+      <c r="B41">
+        <v>207</v>
+      </c>
+      <c r="C41">
+        <v>78</v>
+      </c>
+      <c r="D41">
+        <v>239</v>
+      </c>
+      <c r="E41">
+        <v>110</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1019</v>
+      </c>
+      <c r="B43">
+        <v>285</v>
+      </c>
+      <c r="C43">
+        <v>78</v>
+      </c>
+      <c r="D43">
+        <v>317</v>
+      </c>
+      <c r="E43">
+        <v>110</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1020</v>
+      </c>
+      <c r="B44">
+        <v>310</v>
+      </c>
+      <c r="C44">
+        <v>78</v>
+      </c>
+      <c r="D44">
+        <v>342</v>
+      </c>
+      <c r="E44">
+        <v>110</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1021</v>
+      </c>
+      <c r="B45">
+        <v>345</v>
+      </c>
+      <c r="C45">
+        <v>78</v>
+      </c>
+      <c r="D45">
+        <v>377</v>
+      </c>
+      <c r="E45">
+        <v>110</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1022</v>
+      </c>
+      <c r="B47">
+        <v>431</v>
+      </c>
+      <c r="C47">
+        <v>78</v>
+      </c>
+      <c r="D47">
+        <v>463</v>
+      </c>
+      <c r="E47">
+        <v>110</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1023</v>
+      </c>
+      <c r="B48">
+        <v>464</v>
+      </c>
+      <c r="C48">
+        <v>78</v>
+      </c>
+      <c r="D48">
+        <v>496</v>
+      </c>
+      <c r="E48">
+        <v>110</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1024</v>
+      </c>
+      <c r="B49">
+        <v>499</v>
+      </c>
+      <c r="C49">
+        <v>78</v>
+      </c>
+      <c r="D49">
         <v>531</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
+      <c r="E49">
         <v>110</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>1101</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>477</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>32</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ref="F37:F67" si="3">B37+D37</f>
-        <v>9</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1102</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>477</v>
-      </c>
-      <c r="D38">
-        <v>16</v>
-      </c>
-      <c r="E38">
-        <v>24</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>501</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1103</v>
-      </c>
-      <c r="B39">
-        <v>27</v>
-      </c>
-      <c r="C39">
-        <v>477</v>
-      </c>
-      <c r="D39">
-        <v>24</v>
-      </c>
-      <c r="E39">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>1111</v>
-      </c>
-      <c r="B41">
-        <v>61</v>
-      </c>
-      <c r="C41">
-        <v>477</v>
-      </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
-      <c r="E41">
-        <v>32</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>1112</v>
-      </c>
-      <c r="B42">
-        <v>105</v>
-      </c>
-      <c r="C42">
-        <v>477</v>
-      </c>
-      <c r="D42">
-        <v>16</v>
-      </c>
-      <c r="E42">
-        <v>24</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>501</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>1113</v>
-      </c>
-      <c r="B43">
-        <v>156</v>
-      </c>
-      <c r="C43">
-        <v>477</v>
-      </c>
-      <c r="D43">
-        <v>24</v>
-      </c>
-      <c r="E43">
-        <v>16</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1114</v>
-      </c>
-      <c r="B44">
-        <v>222</v>
-      </c>
-      <c r="C44">
-        <v>477</v>
-      </c>
-      <c r="D44">
-        <v>40</v>
-      </c>
-      <c r="E44">
-        <v>16</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>262</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1121</v>
-      </c>
-      <c r="B46">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>477</v>
-      </c>
-      <c r="D46">
-        <v>8</v>
-      </c>
-      <c r="E46">
-        <v>32</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1122</v>
-      </c>
-      <c r="B47">
-        <v>88</v>
-      </c>
-      <c r="C47">
-        <v>477</v>
-      </c>
-      <c r="D47">
-        <v>16</v>
-      </c>
-      <c r="E47">
-        <v>24</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>501</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>1123</v>
-      </c>
-      <c r="B48">
-        <v>181</v>
-      </c>
-      <c r="C48">
-        <v>477</v>
-      </c>
-      <c r="D48">
-        <v>40</v>
-      </c>
-      <c r="E48">
-        <v>16</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>221</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1131</v>
-      </c>
-      <c r="B50">
-        <v>70</v>
-      </c>
-      <c r="C50">
-        <v>477</v>
-      </c>
-      <c r="D50">
-        <v>8</v>
-      </c>
-      <c r="E50">
-        <v>32</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1132</v>
-      </c>
       <c r="B51">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>477</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="E51">
-        <v>24</v>
+        <v>509</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>501</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1133</v>
+        <v>1102</v>
       </c>
       <c r="B52">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="C52">
         <v>477</v>
       </c>
       <c r="D52">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>501</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
-        <v>303</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1103</v>
+      </c>
+      <c r="B53">
+        <v>176</v>
+      </c>
+      <c r="C53">
+        <v>477</v>
+      </c>
+      <c r="D53">
+        <v>288</v>
+      </c>
+      <c r="E53">
         <v>493</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>1141</v>
-      </c>
-      <c r="B54">
-        <v>79</v>
-      </c>
-      <c r="C54">
-        <v>477</v>
-      </c>
-      <c r="D54">
-        <v>8</v>
-      </c>
-      <c r="E54">
-        <v>32</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1111</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
         <v>509</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1142</v>
-      </c>
-      <c r="B55">
-        <v>139</v>
-      </c>
-      <c r="C55">
-        <v>477</v>
-      </c>
       <c r="D55">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="E55">
-        <v>24</v>
+        <v>541</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>501</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1143</v>
+        <v>1112</v>
       </c>
       <c r="B56">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="C56">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>533</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
-        <v>344</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1113</v>
+      </c>
+      <c r="B57">
+        <v>176</v>
+      </c>
+      <c r="C57">
+        <v>509</v>
+      </c>
+      <c r="D57">
+        <v>288</v>
+      </c>
+      <c r="E57">
+        <v>525</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1151</v>
+        <v>1114</v>
       </c>
       <c r="B58">
-        <v>354</v>
+        <v>176</v>
       </c>
       <c r="C58">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>541</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
-        <v>370</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1161</v>
+        <v>1121</v>
       </c>
       <c r="B60">
-        <v>401</v>
+        <v>52</v>
       </c>
       <c r="C60">
         <v>477</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>509</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
-        <v>417</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1162</v>
+        <v>1122</v>
       </c>
       <c r="B61">
-        <v>418</v>
+        <v>88</v>
       </c>
       <c r="C61">
         <v>477</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>501</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
-        <v>434</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1163</v>
+        <v>1123</v>
       </c>
       <c r="B62">
-        <v>435</v>
+        <v>181</v>
       </c>
       <c r="C62">
         <v>477</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E62">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
-        <v>451</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1171</v>
+        <v>1131</v>
       </c>
       <c r="B64">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="C64">
         <v>477</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>509</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
-        <v>531</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1172</v>
+        <v>1132</v>
       </c>
       <c r="B65">
-        <v>532</v>
+        <v>122</v>
       </c>
       <c r="C65">
         <v>477</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>501</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
-        <v>548</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1173</v>
+        <v>1133</v>
       </c>
       <c r="B66">
-        <v>549</v>
+        <v>263</v>
       </c>
       <c r="C66">
         <v>477</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F66">
-        <f t="shared" si="3"/>
-        <v>565</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>1174</v>
-      </c>
-      <c r="B67">
-        <v>566</v>
-      </c>
-      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1141</v>
+      </c>
+      <c r="B68">
+        <v>79</v>
+      </c>
+      <c r="C68">
         <v>477</v>
       </c>
-      <c r="D67">
-        <v>16</v>
-      </c>
-      <c r="E67">
-        <v>16</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="3"/>
-        <v>582</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>87</v>
+      </c>
+      <c r="E68">
+        <v>509</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1181</v>
+        <v>1142</v>
       </c>
       <c r="B69">
-        <v>587</v>
+        <v>139</v>
       </c>
       <c r="C69">
         <v>477</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>501</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:F76" si="4">B69+D69</f>
-        <v>595</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ref="G69:G76" si="5">C69+E69</f>
-        <v>493</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1182</v>
+        <v>1143</v>
       </c>
       <c r="B70">
-        <v>596</v>
+        <v>304</v>
       </c>
       <c r="C70">
         <v>477</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>344</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
-        <v>604</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="5"/>
-        <v>493</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>1183</v>
-      </c>
-      <c r="B71">
-        <v>605</v>
-      </c>
-      <c r="C71">
-        <v>477</v>
-      </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>16</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="4"/>
-        <v>613</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="5"/>
-        <v>493</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1184</v>
+        <v>1151</v>
       </c>
       <c r="B72">
-        <v>614</v>
+        <v>354</v>
       </c>
       <c r="C72">
         <v>477</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>370</v>
       </c>
       <c r="E72">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
-        <v>622</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="5"/>
-        <v>493</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>1185</v>
-      </c>
-      <c r="B73">
-        <v>623</v>
-      </c>
-      <c r="C73">
-        <v>477</v>
-      </c>
-      <c r="D73">
-        <v>16</v>
-      </c>
-      <c r="E73">
-        <v>16</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="4"/>
-        <v>639</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="5"/>
-        <v>493</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1186</v>
+        <v>1161</v>
       </c>
       <c r="B74">
-        <v>640</v>
+        <v>401</v>
       </c>
       <c r="C74">
         <v>477</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>417</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
-        <v>656</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1162</v>
+      </c>
+      <c r="B75">
+        <v>418</v>
+      </c>
+      <c r="C75">
+        <v>477</v>
+      </c>
+      <c r="D75">
+        <v>434</v>
+      </c>
+      <c r="E75">
         <v>493</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1999</v>
+        <v>1163</v>
       </c>
       <c r="B76">
-        <v>727</v>
+        <v>435</v>
       </c>
       <c r="C76">
         <v>477</v>
       </c>
       <c r="D76">
+        <v>451</v>
+      </c>
+      <c r="E76">
+        <v>493</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1171</v>
+      </c>
+      <c r="B78">
+        <v>515</v>
+      </c>
+      <c r="C78">
+        <v>477</v>
+      </c>
+      <c r="D78">
+        <v>531</v>
+      </c>
+      <c r="E78">
+        <v>493</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1172</v>
+      </c>
+      <c r="B79">
+        <v>532</v>
+      </c>
+      <c r="C79">
+        <v>477</v>
+      </c>
+      <c r="D79">
+        <v>548</v>
+      </c>
+      <c r="E79">
+        <v>493</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1173</v>
+      </c>
+      <c r="B80">
+        <v>549</v>
+      </c>
+      <c r="C80">
+        <v>477</v>
+      </c>
+      <c r="D80">
+        <v>565</v>
+      </c>
+      <c r="E80">
+        <v>493</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1174</v>
+      </c>
+      <c r="B81">
+        <v>566</v>
+      </c>
+      <c r="C81">
+        <v>477</v>
+      </c>
+      <c r="D81">
+        <v>582</v>
+      </c>
+      <c r="E81">
+        <v>493</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1181</v>
+      </c>
+      <c r="B83">
+        <v>587</v>
+      </c>
+      <c r="C83">
+        <v>477</v>
+      </c>
+      <c r="D83">
+        <v>595</v>
+      </c>
+      <c r="E83">
+        <v>493</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1182</v>
+      </c>
+      <c r="B84">
+        <v>596</v>
+      </c>
+      <c r="C84">
+        <v>477</v>
+      </c>
+      <c r="D84">
+        <v>612</v>
+      </c>
+      <c r="E84">
+        <v>493</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1183</v>
+      </c>
+      <c r="B85">
+        <v>609</v>
+      </c>
+      <c r="C85">
+        <v>477</v>
+      </c>
+      <c r="D85">
+        <v>625</v>
+      </c>
+      <c r="E85">
+        <v>493</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1184</v>
+      </c>
+      <c r="B86">
+        <v>622</v>
+      </c>
+      <c r="C86">
+        <v>477</v>
+      </c>
+      <c r="D86">
+        <v>638</v>
+      </c>
+      <c r="E86">
+        <v>493</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1185</v>
+      </c>
+      <c r="B87">
+        <v>639</v>
+      </c>
+      <c r="C87">
+        <v>477</v>
+      </c>
+      <c r="D87">
+        <v>655</v>
+      </c>
+      <c r="E87">
+        <v>493</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1186</v>
+      </c>
+      <c r="B88">
+        <v>656</v>
+      </c>
+      <c r="C88">
+        <v>477</v>
+      </c>
+      <c r="D88">
+        <v>672</v>
+      </c>
+      <c r="E88">
+        <v>493</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1999</v>
+      </c>
+      <c r="B90">
+        <v>727</v>
+      </c>
+      <c r="C90">
+        <v>477</v>
+      </c>
+      <c r="D90">
+        <v>735</v>
+      </c>
+      <c r="E90">
+        <v>493</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2000</v>
+      </c>
+      <c r="B92">
+        <v>175</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>191</v>
+      </c>
+      <c r="E92">
+        <v>33</v>
+      </c>
+      <c r="F92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2001</v>
+      </c>
+      <c r="B93">
+        <v>192</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>208</v>
+      </c>
+      <c r="E93">
+        <v>33</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2002</v>
+      </c>
+      <c r="B95">
+        <v>157</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>165</v>
+      </c>
+      <c r="E95">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2003</v>
+      </c>
+      <c r="B96">
+        <v>166</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>174</v>
+      </c>
+      <c r="E96">
+        <v>17</v>
+      </c>
+      <c r="F96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>3000</v>
+      </c>
+      <c r="B98">
+        <v>48</v>
+      </c>
+      <c r="C98">
+        <v>64</v>
+      </c>
+      <c r="D98">
+        <v>64</v>
+      </c>
+      <c r="E98">
+        <v>80</v>
+      </c>
+      <c r="F98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>4000</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>17</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>4001</v>
+      </c>
+      <c r="B103">
+        <v>18</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>26</v>
+      </c>
+      <c r="E103">
+        <v>17</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>4002</v>
+      </c>
+      <c r="B105">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>43</v>
+      </c>
+      <c r="E105">
+        <v>17</v>
+      </c>
+      <c r="F105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>4003</v>
+      </c>
+      <c r="B107">
+        <v>44</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>60</v>
+      </c>
+      <c r="E107">
+        <v>17</v>
+      </c>
+      <c r="F107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>4004</v>
+      </c>
+      <c r="B108">
+        <v>61</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>77</v>
+      </c>
+      <c r="E108">
+        <v>17</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>4005</v>
+      </c>
+      <c r="B109">
+        <v>78</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>94</v>
+      </c>
+      <c r="E109">
+        <v>17</v>
+      </c>
+      <c r="F109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>4006</v>
+      </c>
+      <c r="B111">
+        <v>95</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>111</v>
+      </c>
+      <c r="E111">
+        <v>17</v>
+      </c>
+      <c r="F111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>4007</v>
+      </c>
+      <c r="B112">
+        <v>112</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>128</v>
+      </c>
+      <c r="E112">
+        <v>17</v>
+      </c>
+      <c r="F112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>4008</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>18</v>
+      </c>
+      <c r="D114">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>34</v>
+      </c>
+      <c r="F114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>4009</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>18</v>
+      </c>
+      <c r="D116">
+        <v>34</v>
+      </c>
+      <c r="E116">
+        <v>34</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>4010</v>
+      </c>
+      <c r="B118">
+        <v>35</v>
+      </c>
+      <c r="C118">
+        <v>18</v>
+      </c>
+      <c r="D118">
+        <v>51</v>
+      </c>
+      <c r="E118">
+        <v>34</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>4011</v>
+      </c>
+      <c r="B120">
+        <v>86</v>
+      </c>
+      <c r="C120">
+        <v>18</v>
+      </c>
+      <c r="D120">
+        <v>102</v>
+      </c>
+      <c r="E120">
+        <v>34</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>4012</v>
+      </c>
+      <c r="B122">
+        <v>103</v>
+      </c>
+      <c r="C122">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>119</v>
+      </c>
+      <c r="E122">
+        <v>34</v>
+      </c>
+      <c r="F122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>4013</v>
+      </c>
+      <c r="B124">
+        <v>120</v>
+      </c>
+      <c r="C124">
+        <v>18</v>
+      </c>
+      <c r="D124">
+        <v>136</v>
+      </c>
+      <c r="E124">
+        <v>34</v>
+      </c>
+      <c r="F124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>4014</v>
+      </c>
+      <c r="B125">
+        <v>137</v>
+      </c>
+      <c r="C125">
+        <v>18</v>
+      </c>
+      <c r="D125">
+        <v>153</v>
+      </c>
+      <c r="E125">
+        <v>34</v>
+      </c>
+      <c r="F125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>4015</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>35</v>
+      </c>
+      <c r="D127">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>51</v>
+      </c>
+      <c r="F127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>4016</v>
+      </c>
+      <c r="B129">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>35</v>
+      </c>
+      <c r="D129">
+        <v>34</v>
+      </c>
+      <c r="E129">
+        <v>51</v>
+      </c>
+      <c r="F129">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>4017</v>
+      </c>
+      <c r="B131">
+        <v>35</v>
+      </c>
+      <c r="C131">
+        <v>35</v>
+      </c>
+      <c r="D131">
+        <v>51</v>
+      </c>
+      <c r="E131">
+        <v>51</v>
+      </c>
+      <c r="F131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" t="s">
+        <v>74</v>
+      </c>
+      <c r="D132" t="s">
+        <v>75</v>
+      </c>
+      <c r="E132" t="s">
+        <v>76</v>
+      </c>
+      <c r="F132" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>100</v>
+      </c>
+      <c r="B138">
+        <v>1001</v>
+      </c>
+      <c r="C138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>101</v>
+      </c>
+      <c r="B140">
+        <v>1003</v>
+      </c>
+      <c r="C140">
+        <v>100</v>
+      </c>
+      <c r="D140">
+        <v>1004</v>
+      </c>
+      <c r="E140">
+        <v>100</v>
+      </c>
+      <c r="F140">
+        <v>1003</v>
+      </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140">
+        <v>1002</v>
+      </c>
+      <c r="I140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>102</v>
+      </c>
+      <c r="B142">
+        <v>1013</v>
+      </c>
+      <c r="C142">
+        <v>100</v>
+      </c>
+      <c r="D142">
+        <v>1014</v>
+      </c>
+      <c r="E142">
+        <v>100</v>
+      </c>
+      <c r="F142">
+        <v>1015</v>
+      </c>
+      <c r="G142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>103</v>
+      </c>
+      <c r="B144">
+        <v>1005</v>
+      </c>
+      <c r="C144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>104</v>
+      </c>
+      <c r="B146">
+        <v>1016</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+      <c r="D146">
+        <v>1017</v>
+      </c>
+      <c r="E146">
+        <v>100</v>
+      </c>
+      <c r="F146">
+        <v>1018</v>
+      </c>
+      <c r="G146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>105</v>
+      </c>
+      <c r="B148">
+        <v>1005</v>
+      </c>
+      <c r="C148">
+        <v>400</v>
+      </c>
+      <c r="D148">
+        <v>1001</v>
+      </c>
+      <c r="E148">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>106</v>
+      </c>
+      <c r="B150">
+        <v>1010</v>
+      </c>
+      <c r="C150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>107</v>
+      </c>
+      <c r="B152">
+        <v>1011</v>
+      </c>
+      <c r="C152">
+        <v>100</v>
+      </c>
+      <c r="D152">
+        <v>1012</v>
+      </c>
+      <c r="E152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>200</v>
+      </c>
+      <c r="B154">
+        <v>3000</v>
+      </c>
+      <c r="C154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>300</v>
+      </c>
+      <c r="B156">
+        <v>1101</v>
+      </c>
+      <c r="C156">
+        <v>100</v>
+      </c>
+      <c r="D156">
+        <v>1102</v>
+      </c>
+      <c r="E156">
+        <v>100</v>
+      </c>
+      <c r="F156">
+        <v>1103</v>
+      </c>
+      <c r="G156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>301</v>
+      </c>
+      <c r="B157">
+        <v>1111</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>1112</v>
+      </c>
+      <c r="E157">
+        <v>100</v>
+      </c>
+      <c r="F157">
+        <v>1113</v>
+      </c>
+      <c r="G157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>302</v>
+      </c>
+      <c r="B158">
+        <v>1111</v>
+      </c>
+      <c r="C158">
+        <v>100</v>
+      </c>
+      <c r="D158">
+        <v>1112</v>
+      </c>
+      <c r="E158">
+        <v>100</v>
+      </c>
+      <c r="F158">
+        <v>1114</v>
+      </c>
+      <c r="G158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>303</v>
+      </c>
+      <c r="B160">
+        <v>1151</v>
+      </c>
+      <c r="C160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>304</v>
+      </c>
+      <c r="B162">
+        <v>1161</v>
+      </c>
+      <c r="C162">
+        <v>100</v>
+      </c>
+      <c r="D162">
+        <v>1163</v>
+      </c>
+      <c r="E162">
+        <v>100</v>
+      </c>
+      <c r="F162">
+        <v>1162</v>
+      </c>
+      <c r="G162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>305</v>
+      </c>
+      <c r="B164">
+        <v>1171</v>
+      </c>
+      <c r="C164">
+        <v>50</v>
+      </c>
+      <c r="D164">
+        <v>1172</v>
+      </c>
+      <c r="E164">
+        <v>50</v>
+      </c>
+      <c r="F164">
+        <v>1173</v>
+      </c>
+      <c r="G164">
+        <v>50</v>
+      </c>
+      <c r="H164">
+        <v>1174</v>
+      </c>
+      <c r="I164">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>306</v>
+      </c>
+      <c r="B166">
+        <v>1181</v>
+      </c>
+      <c r="C166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>307</v>
+      </c>
+      <c r="B167">
+        <v>1182</v>
+      </c>
+      <c r="C167">
+        <v>100</v>
+      </c>
+      <c r="D167">
+        <v>1183</v>
+      </c>
+      <c r="E167">
+        <v>100</v>
+      </c>
+      <c r="F167">
+        <v>1184</v>
+      </c>
+      <c r="G167">
+        <v>100</v>
+      </c>
+      <c r="H167">
+        <v>1185</v>
+      </c>
+      <c r="I167">
+        <v>100</v>
+      </c>
+      <c r="J167">
+        <v>1186</v>
+      </c>
+      <c r="K167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>308</v>
+      </c>
+      <c r="B169">
+        <v>1999</v>
+      </c>
+      <c r="C169">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>309</v>
+      </c>
+      <c r="B170">
+        <v>1181</v>
+      </c>
+      <c r="C170">
+        <v>100</v>
+      </c>
+      <c r="D170">
+        <v>1182</v>
+      </c>
+      <c r="E170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>398</v>
+      </c>
+      <c r="B172">
+        <v>2002</v>
+      </c>
+      <c r="C172">
+        <v>100</v>
+      </c>
+      <c r="D172">
+        <v>2003</v>
+      </c>
+      <c r="E172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>399</v>
+      </c>
+      <c r="B173">
+        <v>2000</v>
+      </c>
+      <c r="C173">
+        <v>100</v>
+      </c>
+      <c r="D173">
+        <v>2001</v>
+      </c>
+      <c r="E173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>401</v>
+      </c>
+      <c r="B175">
+        <v>4001</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>402</v>
+      </c>
+      <c r="B177">
+        <v>4002</v>
+      </c>
+      <c r="C177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>403</v>
+      </c>
+      <c r="B179">
+        <v>4003</v>
+      </c>
+      <c r="C179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>404</v>
+      </c>
+      <c r="B180">
+        <v>4004</v>
+      </c>
+      <c r="C180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>405</v>
+      </c>
+      <c r="B181">
+        <v>4005</v>
+      </c>
+      <c r="C181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>406</v>
+      </c>
+      <c r="B183">
+        <v>4006</v>
+      </c>
+      <c r="C183">
+        <v>100</v>
+      </c>
+      <c r="D183">
+        <v>4007</v>
+      </c>
+      <c r="E183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>400</v>
+      </c>
+      <c r="B185">
+        <v>4000</v>
+      </c>
+      <c r="C185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>408</v>
+      </c>
+      <c r="B187">
+        <v>4008</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>409</v>
+      </c>
+      <c r="B189">
+        <v>4009</v>
+      </c>
+      <c r="C189">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>410</v>
+      </c>
+      <c r="B191">
+        <v>4010</v>
+      </c>
+      <c r="C191">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>411</v>
+      </c>
+      <c r="B193">
+        <v>4011</v>
+      </c>
+      <c r="C193">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>412</v>
+      </c>
+      <c r="B195">
+        <v>4012</v>
+      </c>
+      <c r="C195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>413</v>
+      </c>
+      <c r="B197">
+        <v>4013</v>
+      </c>
+      <c r="C197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>414</v>
+      </c>
+      <c r="B198">
+        <v>4014</v>
+      </c>
+      <c r="C198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>415</v>
+      </c>
+      <c r="B200">
+        <v>4015</v>
+      </c>
+      <c r="C200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>416</v>
+      </c>
+      <c r="B202">
+        <v>4016</v>
+      </c>
+      <c r="C202">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>417</v>
+      </c>
+      <c r="B204">
+        <v>4017</v>
+      </c>
+      <c r="C204">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>100</v>
+      </c>
+      <c r="C207">
+        <v>101</v>
+      </c>
+      <c r="D207">
+        <v>102</v>
+      </c>
+      <c r="E207">
+        <v>103</v>
+      </c>
+      <c r="F207">
+        <v>104</v>
+      </c>
+      <c r="G207">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211">
+        <v>300</v>
+      </c>
+      <c r="C211">
+        <v>301</v>
+      </c>
+      <c r="D211">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>5</v>
+      </c>
+      <c r="B215">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>6</v>
+      </c>
+      <c r="B217">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>7</v>
+      </c>
+      <c r="B219">
+        <v>306</v>
+      </c>
+      <c r="C219">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
         <v>8</v>
       </c>
-      <c r="E76">
-        <v>16</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="4"/>
-        <v>735</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="5"/>
-        <v>493</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>2002</v>
-      </c>
-      <c r="B78">
-        <v>157</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>8</v>
-      </c>
-      <c r="E78">
-        <v>16</v>
-      </c>
-      <c r="F78">
-        <f t="shared" ref="F78:F79" si="6">B78+D78</f>
-        <v>165</v>
-      </c>
-      <c r="G78">
-        <f t="shared" ref="G78:G79" si="7">C78+E78</f>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>9</v>
+      </c>
+      <c r="B223">
+        <v>398</v>
+      </c>
+      <c r="C223">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>11</v>
+      </c>
+      <c r="B225">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>12</v>
+      </c>
+      <c r="B227">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>13</v>
+      </c>
+      <c r="B229">
+        <v>403</v>
+      </c>
+      <c r="C229">
+        <v>404</v>
+      </c>
+      <c r="D229">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>14</v>
+      </c>
+      <c r="B231">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>15</v>
+      </c>
+      <c r="B233">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>16</v>
+      </c>
+      <c r="B235">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
         <v>17</v>
       </c>
-      <c r="H78">
+      <c r="B237">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>18</v>
+      </c>
+      <c r="B239">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>19</v>
+      </c>
+      <c r="B241">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>2003</v>
-      </c>
-      <c r="B79">
-        <v>166</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>8</v>
-      </c>
-      <c r="E79">
-        <v>16</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="6"/>
-        <v>174</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="H79">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>4000</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>16</v>
-      </c>
-      <c r="E82">
-        <v>16</v>
-      </c>
-      <c r="F82">
-        <f>B82+D82</f>
-        <v>17</v>
-      </c>
-      <c r="G82">
-        <f>C82+E82</f>
-        <v>17</v>
-      </c>
-      <c r="H82">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B243">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>4001</v>
-      </c>
-      <c r="B84">
-        <v>18</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>8</v>
-      </c>
-      <c r="E84">
-        <v>16</v>
-      </c>
-      <c r="F84">
-        <f t="shared" ref="F84:F110" si="8">B84+D84</f>
-        <v>26</v>
-      </c>
-      <c r="G84">
-        <f t="shared" ref="G84:G110" si="9">C84+E84</f>
-        <v>17</v>
-      </c>
-      <c r="H84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B245">
+        <v>413</v>
+      </c>
+      <c r="C245">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>4002</v>
-      </c>
-      <c r="B86">
-        <v>27</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>16</v>
-      </c>
-      <c r="E86">
-        <v>16</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="H86">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B247">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>4003</v>
-      </c>
-      <c r="B88">
-        <v>44</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>16</v>
-      </c>
-      <c r="E88">
-        <v>16</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="H88">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>4004</v>
-      </c>
-      <c r="B89">
-        <v>61</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>16</v>
-      </c>
-      <c r="E89">
-        <v>16</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="8"/>
-        <v>77</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="H89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>4005</v>
-      </c>
-      <c r="B90">
-        <v>78</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>16</v>
-      </c>
-      <c r="E90">
-        <v>16</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="H90">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B249">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>4006</v>
-      </c>
-      <c r="B92">
-        <v>95</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>16</v>
-      </c>
-      <c r="E92">
-        <v>16</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="8"/>
-        <v>111</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="H92">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>4007</v>
-      </c>
-      <c r="B93">
-        <v>112</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>16</v>
-      </c>
-      <c r="E93">
-        <v>16</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="8"/>
-        <v>128</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="H93">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>4008</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>18</v>
-      </c>
-      <c r="D95">
-        <v>16</v>
-      </c>
-      <c r="E95">
-        <v>16</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
-      <c r="H95">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>4009</v>
-      </c>
-      <c r="B97">
-        <v>18</v>
-      </c>
-      <c r="C97">
-        <v>18</v>
-      </c>
-      <c r="D97">
-        <v>16</v>
-      </c>
-      <c r="E97">
-        <v>16</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
-      <c r="H97">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>4010</v>
-      </c>
-      <c r="B99">
-        <v>35</v>
-      </c>
-      <c r="C99">
-        <v>18</v>
-      </c>
-      <c r="D99">
-        <v>16</v>
-      </c>
-      <c r="E99">
-        <v>16</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
-      <c r="H99">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>4011</v>
-      </c>
-      <c r="B101">
-        <v>86</v>
-      </c>
-      <c r="C101">
-        <v>18</v>
-      </c>
-      <c r="D101">
-        <v>16</v>
-      </c>
-      <c r="E101">
-        <v>16</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="8"/>
-        <v>102</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
-      <c r="H101">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>4012</v>
-      </c>
-      <c r="B103">
-        <v>103</v>
-      </c>
-      <c r="C103">
-        <v>18</v>
-      </c>
-      <c r="D103">
-        <v>16</v>
-      </c>
-      <c r="E103">
-        <v>16</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="8"/>
+      <c r="B251">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>3</v>
+      </c>
+      <c r="B258" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>4</v>
+      </c>
+      <c r="B259" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>5</v>
+      </c>
+      <c r="B260" t="s">
         <v>119</v>
       </c>
-      <c r="G103">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
-      <c r="H103">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>4013</v>
-      </c>
-      <c r="B105">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>6</v>
+      </c>
+      <c r="B261" t="s">
         <v>120</v>
-      </c>
-      <c r="C105">
-        <v>18</v>
-      </c>
-      <c r="D105">
-        <v>16</v>
-      </c>
-      <c r="E105">
-        <v>16</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="8"/>
-        <v>136</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
-      <c r="H105">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>4014</v>
-      </c>
-      <c r="B106">
-        <v>137</v>
-      </c>
-      <c r="C106">
-        <v>18</v>
-      </c>
-      <c r="D106">
-        <v>16</v>
-      </c>
-      <c r="E106">
-        <v>16</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="8"/>
-        <v>153</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
-      <c r="H106">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>4015</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>35</v>
-      </c>
-      <c r="D108">
-        <v>16</v>
-      </c>
-      <c r="E108">
-        <v>16</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="H108">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>4016</v>
-      </c>
-      <c r="B110">
-        <v>18</v>
-      </c>
-      <c r="C110">
-        <v>35</v>
-      </c>
-      <c r="D110">
-        <v>16</v>
-      </c>
-      <c r="E110">
-        <v>16</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="H110">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4855,15 +5837,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62B6360-C73A-4FCB-AB6B-6A07C40F8816}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4897,269 +5879,632 @@
       <c r="K1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>178</v>
-      </c>
-      <c r="G2">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>178</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>178</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="F11">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="F12">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="F13">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F14">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="F15">
         <v>178</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="F16">
         <v>178</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="F17">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F18">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -5168,12 +6513,33 @@
         <v>224</v>
       </c>
       <c r="F19">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -5182,12 +6548,33 @@
         <v>224</v>
       </c>
       <c r="F20">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -5196,12 +6583,33 @@
         <v>224</v>
       </c>
       <c r="F21">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -5210,12 +6618,33 @@
         <v>224</v>
       </c>
       <c r="F22">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -5224,12 +6653,33 @@
         <v>224</v>
       </c>
       <c r="F23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -5238,12 +6688,33 @@
         <v>224</v>
       </c>
       <c r="F24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -5252,12 +6723,33 @@
         <v>224</v>
       </c>
       <c r="F25">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -5266,12 +6758,33 @@
         <v>224</v>
       </c>
       <c r="F26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -5280,54 +6793,138 @@
         <v>224</v>
       </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F28">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="F29">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="F30">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -5337,6 +6934,166 @@
       </c>
       <c r="F31">
         <v>114</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>176</v>
+      </c>
+      <c r="F32">
+        <v>114</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>192</v>
+      </c>
+      <c r="F33">
+        <v>114</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>208</v>
+      </c>
+      <c r="F34">
+        <v>114</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>116</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/05-ScenceManager/Simon_hitbox.xlsx
+++ b/05-ScenceManager/Simon_hitbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\gamedev-intro-tutorials-master\05-ScenceManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC9E13F-9185-4B0B-A8C7-A0633EBE0F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965EAA00-CC96-4920-9BB9-40B2FB52FD54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{93395667-CA55-412F-A736-D5E1F8C29C24}"/>
+    <workbookView minimized="1" xWindow="10176" yWindow="468" windowWidth="11484" windowHeight="11892" activeTab="2" xr2:uid="{93395667-CA55-412F-A736-D5E1F8C29C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Scene 2" sheetId="3" r:id="rId3"/>
     <sheet name="Scene 3" sheetId="4" r:id="rId4"/>
     <sheet name="Scene4" sheetId="5" r:id="rId5"/>
+    <sheet name="Scene5" sheetId="6" r:id="rId6"/>
+    <sheet name="Scene6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="163">
   <si>
     <t>#jump/duck</t>
   </si>
@@ -396,9 +398,6 @@
     <t>simon_scene6.txt</t>
   </si>
   <si>
-    <t>#simon</t>
-  </si>
-  <si>
     <t>#items list:</t>
   </si>
   <si>
@@ -459,9 +458,6 @@
     <t>#object</t>
   </si>
   <si>
-    <t>ani_set</t>
-  </si>
-  <si>
     <t>#stairs</t>
   </si>
   <si>
@@ -507,16 +503,31 @@
     <t>gridy</t>
   </si>
   <si>
-    <t>ani_id</t>
-  </si>
-  <si>
-    <t>#type:</t>
-  </si>
-  <si>
     <t>Scene4/mapping.txt</t>
   </si>
   <si>
     <t>Scene3/mapping.txt</t>
+  </si>
+  <si>
+    <t>#enemies</t>
+  </si>
+  <si>
+    <t>#platform</t>
+  </si>
+  <si>
+    <t>Scene5/mapping.txt</t>
+  </si>
+  <si>
+    <t>#firepillars</t>
+  </si>
+  <si>
+    <t>Scene6/mapping.txt</t>
+  </si>
+  <si>
+    <t>0'</t>
+  </si>
+  <si>
+    <t>#firepillar</t>
   </si>
 </sst>
 </file>
@@ -923,7 +934,7 @@
         <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1025,7 +1036,7 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1042,7 +1053,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1059,7 +1070,7 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1076,7 +1087,7 @@
         <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3060,7 +3071,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -3076,7 +3087,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -3098,7 +3109,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -3126,7 +3137,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -3142,7 +3153,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -3164,7 +3175,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -4192,88 +4203,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C540895-A041-4023-A958-DD4F1CAA7938}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
         <v>153</v>
       </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>129</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4282,357 +4322,334 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>162</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <v>256</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="E11">
+        <v>160</v>
+      </c>
+      <c r="F11">
+        <v>256</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>512</v>
+      </c>
+      <c r="E12">
+        <v>160</v>
+      </c>
+      <c r="F12">
+        <v>256</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <v>128</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>216</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>344</v>
+      </c>
+      <c r="E16">
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>472</v>
+      </c>
+      <c r="E17">
+        <v>128</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>600</v>
+      </c>
+      <c r="E18">
+        <v>128</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>50</v>
       </c>
-      <c r="F9">
-        <v>129</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>162</v>
-      </c>
-      <c r="G11">
-        <v>256</v>
-      </c>
-      <c r="H11">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>688</v>
+      </c>
+      <c r="E20">
+        <v>130</v>
+      </c>
+      <c r="F20">
         <v>16</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>256</v>
-      </c>
-      <c r="F12">
-        <v>162</v>
-      </c>
-      <c r="G12">
-        <v>256</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>512</v>
-      </c>
-      <c r="F13">
-        <v>162</v>
-      </c>
-      <c r="G13">
-        <v>256</v>
-      </c>
-      <c r="H13">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>88</v>
-      </c>
-      <c r="F15">
-        <v>130</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>216</v>
-      </c>
-      <c r="F16">
-        <v>130</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>344</v>
-      </c>
-      <c r="F17">
-        <v>130</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>472</v>
-      </c>
-      <c r="F18">
-        <v>130</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>600</v>
-      </c>
-      <c r="F19">
-        <v>130</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>50</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>680</v>
-      </c>
-      <c r="F21">
-        <v>130</v>
-      </c>
-      <c r="G21">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>16</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
+      <c r="G20">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>144</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
     </row>
@@ -4643,56 +4660,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62B6360-C73A-4FCB-AB6B-6A07C40F8816}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>135</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>136</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>137</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4704,401 +4721,372 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="P4">
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="P4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>176</v>
+      </c>
+      <c r="F7">
+        <v>256</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <f>$G7-2</f>
-        <v>143</v>
-      </c>
-      <c r="G7">
-        <v>145</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>224</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>224</v>
+      </c>
+      <c r="E9">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F21" si="0">$G9-2</f>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>160</v>
+      </c>
+      <c r="E10">
+        <v>112</v>
+      </c>
+      <c r="F10">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
         <v>176</v>
       </c>
-      <c r="G9">
-        <v>178</v>
-      </c>
-      <c r="H9">
-        <v>256</v>
-      </c>
-      <c r="I9">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>16</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>8</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="E12">
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+      <c r="F13">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>224</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
+      <c r="G13">
         <v>16</v>
       </c>
-      <c r="I10">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>240</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
         <v>176</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>9</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>160</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="G11">
-        <v>114</v>
-      </c>
-      <c r="H11">
-        <v>64</v>
-      </c>
-      <c r="I11">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>10</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>176</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>11</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>58</v>
-      </c>
-      <c r="H13">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>64</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>12</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G14">
-        <v>82</v>
-      </c>
-      <c r="H14">
-        <v>128</v>
-      </c>
-      <c r="I14">
-        <v>16</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>13</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -5109,246 +5097,418 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>112</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>204</v>
+      </c>
+      <c r="E17">
+        <v>112</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>140</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>224</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>224</v>
+      </c>
+      <c r="E20">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>4</v>
       </c>
-      <c r="E16">
-        <v>76</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="G16">
-        <v>114</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>104</v>
+      </c>
+      <c r="E22">
+        <v>174</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>168</v>
+      </c>
+      <c r="E23">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <v>78</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>204</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="G17">
-        <v>114</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>140</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>64</v>
+      </c>
+      <c r="E26">
+        <v>48</v>
+      </c>
+      <c r="F26">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>144</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>144</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
         <v>16</v>
       </c>
-      <c r="G18">
-        <v>18</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>99</v>
-      </c>
-      <c r="E20">
-        <v>104</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="G20">
-        <v>160</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>99</v>
-      </c>
-      <c r="E21">
-        <v>168</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="G21">
-        <v>66</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>392</v>
+      </c>
+      <c r="L29">
+        <v>136</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:L4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76989E-33F8-422F-BFC7-6577273055D5}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="A1:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -5357,36 +5517,33 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5394,162 +5551,150 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="E7">
+        <v>112</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>480</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
         <v>192</v>
       </c>
-      <c r="F7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>384</v>
+      </c>
+      <c r="E9">
         <v>80</v>
       </c>
-      <c r="G7">
-        <v>96</v>
-      </c>
-      <c r="H7">
+      <c r="F9">
+        <v>64</v>
+      </c>
+      <c r="G9">
         <v>16</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>96</v>
-      </c>
-      <c r="F8">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>352</v>
+      </c>
+      <c r="E10">
         <v>80</v>
       </c>
-      <c r="G8">
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10">
         <v>64</v>
       </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>128</v>
-      </c>
-      <c r="F9">
-        <v>96</v>
-      </c>
-      <c r="G9">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>320</v>
+      </c>
+      <c r="E11">
+        <v>144</v>
+      </c>
+      <c r="F11">
         <v>32</v>
-      </c>
-      <c r="H9">
-        <v>96</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>64</v>
-      </c>
-      <c r="F10">
-        <v>112</v>
-      </c>
-      <c r="G10">
-        <v>32</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>80</v>
       </c>
       <c r="G11">
         <v>16</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -5557,11 +5702,8 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5569,22 +5711,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>16</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5592,11 +5734,8 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5607,159 +5746,147 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>16</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>96</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>64</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>96</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
         <v>112</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>448</v>
-      </c>
-      <c r="F14">
-        <v>112</v>
-      </c>
-      <c r="G14">
+      <c r="F16">
         <v>32</v>
       </c>
-      <c r="H14">
+      <c r="G16">
         <v>16</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>480</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>32</v>
-      </c>
-      <c r="H15">
-        <v>192</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>384</v>
-      </c>
-      <c r="F16">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
         <v>80</v>
       </c>
-      <c r="G16">
-        <v>64</v>
-      </c>
-      <c r="H16">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>352</v>
-      </c>
-      <c r="F17">
-        <v>80</v>
-      </c>
       <c r="G17">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5767,11 +5894,8 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5779,459 +5903,529 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>32</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
         <v>16</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>288</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>112</v>
       </c>
-      <c r="G19">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="G21">
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>460</v>
+      </c>
+      <c r="E23">
         <v>16</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>460</v>
-      </c>
-      <c r="F21">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>396</v>
+      </c>
+      <c r="E24">
         <v>16</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>396</v>
-      </c>
-      <c r="F22">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>332</v>
+      </c>
+      <c r="E25">
         <v>16</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>332</v>
-      </c>
-      <c r="F23">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>268</v>
+      </c>
+      <c r="E26">
         <v>16</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>268</v>
-      </c>
-      <c r="F24">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>204</v>
+      </c>
+      <c r="E27">
         <v>16</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>204</v>
-      </c>
-      <c r="F25">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>140</v>
+      </c>
+      <c r="E28">
         <v>16</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>140</v>
-      </c>
-      <c r="F26">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>76</v>
+      </c>
+      <c r="E29">
         <v>16</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>76</v>
-      </c>
-      <c r="F27">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>452</v>
+      </c>
+      <c r="E31">
+        <v>66</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>324</v>
+      </c>
+      <c r="E33">
+        <v>112</v>
+      </c>
+      <c r="F33">
+        <v>318</v>
+      </c>
+      <c r="G33">
+        <v>330</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>296</v>
+      </c>
+      <c r="E34">
+        <v>24</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>380</v>
+      </c>
+      <c r="E36">
+        <v>180</v>
+      </c>
+      <c r="F36">
         <v>16</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>452</v>
-      </c>
-      <c r="F29">
-        <v>66</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>112</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+      <c r="N36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>50</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>380</v>
-      </c>
-      <c r="F31">
-        <v>180</v>
-      </c>
-      <c r="G31">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>32</v>
+      </c>
+      <c r="F37">
         <v>16</v>
       </c>
-      <c r="H31">
-        <v>16</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>112</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
+      <c r="G37">
+        <v>48</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>688</v>
+      </c>
+      <c r="L37">
+        <v>126</v>
+      </c>
+      <c r="M37">
         <v>-1</v>
       </c>
-      <c r="O31">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>32</v>
-      </c>
-      <c r="G32">
-        <v>16</v>
-      </c>
-      <c r="H32">
-        <v>48</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>688</v>
-      </c>
-      <c r="M32">
-        <v>127</v>
-      </c>
-      <c r="N32">
-        <v>-1</v>
-      </c>
-      <c r="O32">
+      <c r="N37">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:K19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J19">
     <sortCondition ref="C7:C19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6240,81 +6434,78 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F45CEF-3122-4D48-B697-AB760728E00D}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
         <v>153</v>
       </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6325,89 +6516,83 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>162</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
         <v>16</v>
       </c>
-      <c r="H7">
-        <v>162</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>128</v>
-      </c>
-      <c r="G8">
-        <v>32</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>160</v>
+      </c>
+      <c r="F9">
+        <v>64</v>
+      </c>
+      <c r="G9">
         <v>16</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>64</v>
-      </c>
-      <c r="F9">
-        <v>160</v>
-      </c>
-      <c r="G9">
-        <v>64</v>
-      </c>
       <c r="H9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -6415,11 +6600,8 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6430,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>96</v>
@@ -6439,220 +6621,202 @@
         <v>96</v>
       </c>
       <c r="G10">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>304</v>
+      </c>
+      <c r="E11">
+        <v>128</v>
+      </c>
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>416</v>
+      </c>
+      <c r="E12">
+        <v>128</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>176</v>
       </c>
-      <c r="G11">
+      <c r="F13">
         <v>256</v>
       </c>
-      <c r="H11">
+      <c r="G13">
         <v>16</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>288</v>
-      </c>
-      <c r="F12">
-        <v>128</v>
-      </c>
-      <c r="G12">
-        <v>32</v>
-      </c>
-      <c r="H12">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>736</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>16</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>416</v>
-      </c>
-      <c r="F13">
-        <v>128</v>
-      </c>
-      <c r="G13">
-        <v>32</v>
-      </c>
-      <c r="H13">
+      <c r="G14">
+        <v>112</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>752</v>
+      </c>
+      <c r="E15">
+        <v>112</v>
+      </c>
+      <c r="F15">
         <v>16</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="G15">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>256</v>
       </c>
-      <c r="F14">
+      <c r="E16">
         <v>176</v>
       </c>
-      <c r="G14">
+      <c r="F16">
         <v>256</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>736</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>112</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>752</v>
-      </c>
-      <c r="F16">
-        <v>112</v>
       </c>
       <c r="G16">
         <v>16</v>
       </c>
       <c r="H16">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -6660,11 +6824,8 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6675,54 +6836,51 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="E17">
-        <v>512</v>
+        <v>176</v>
       </c>
       <c r="F17">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="G17">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>672</v>
+      </c>
+      <c r="E18">
+        <v>160</v>
+      </c>
+      <c r="F18">
+        <v>96</v>
+      </c>
+      <c r="G18">
         <v>16</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>672</v>
-      </c>
-      <c r="F18">
-        <v>160</v>
-      </c>
-      <c r="G18">
-        <v>96</v>
-      </c>
       <c r="H18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -6730,16 +6888,13 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -6750,476 +6905,3121 @@
         <v>0</v>
       </c>
       <c r="D20">
+        <v>92</v>
+      </c>
+      <c r="E20">
+        <v>128</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>156</v>
+      </c>
+      <c r="E21">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>220</v>
+      </c>
+      <c r="E22">
+        <v>144</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>284</v>
+      </c>
+      <c r="E23">
+        <v>144</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>288</v>
+      </c>
+      <c r="E24">
+        <v>128</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>348</v>
+      </c>
+      <c r="E25">
+        <v>144</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>412</v>
+      </c>
+      <c r="E26">
+        <v>144</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>476</v>
+      </c>
+      <c r="E27">
+        <v>144</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>540</v>
+      </c>
+      <c r="E28">
+        <v>144</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>604</v>
+      </c>
+      <c r="E29">
+        <v>144</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>668</v>
+      </c>
+      <c r="E30">
+        <v>144</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>732</v>
+      </c>
+      <c r="E31">
+        <v>128</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>4</v>
       </c>
-      <c r="E20">
-        <v>92</v>
-      </c>
-      <c r="F20">
-        <v>128</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>152</v>
+      </c>
+      <c r="E33">
+        <v>95</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>156</v>
       </c>
-      <c r="F21">
-        <v>64</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>220</v>
-      </c>
-      <c r="F22">
-        <v>144</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>284</v>
-      </c>
-      <c r="F23">
-        <v>144</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>348</v>
-      </c>
-      <c r="F24">
-        <v>144</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>412</v>
-      </c>
-      <c r="F25">
-        <v>144</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>476</v>
-      </c>
-      <c r="F26">
-        <v>144</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>540</v>
-      </c>
-      <c r="F27">
-        <v>144</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>604</v>
-      </c>
-      <c r="F28">
-        <v>144</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>668</v>
-      </c>
-      <c r="F29">
-        <v>144</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>732</v>
-      </c>
-      <c r="F30">
-        <v>128</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>640</v>
+      </c>
+      <c r="E35">
+        <v>150</v>
+      </c>
+      <c r="F35">
+        <v>550</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>424</v>
+      </c>
+      <c r="E36">
+        <v>111.5</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>296</v>
+      </c>
+      <c r="E37">
+        <v>111.5</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>168</v>
+      </c>
+      <c r="E38">
+        <v>79.5</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>95.9</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>72</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>16</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>72</v>
+      </c>
+      <c r="L41">
         <v>152</v>
       </c>
-      <c r="F32">
-        <v>95</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="M41">
         <v>-1</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>50</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>72</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>16</v>
-      </c>
-      <c r="H34">
-        <v>32</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>30</v>
-      </c>
-      <c r="M34">
-        <v>143</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
+      <c r="N41">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:K18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J18">
     <sortCondition ref="C7:C18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F6FE1C-1B17-4973-9C09-3FFF6B6E4DF9}">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection sqref="A1:N51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
+      <c r="F7">
+        <v>64</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>128</v>
+      </c>
+      <c r="E8">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>192</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>160</v>
+      </c>
+      <c r="E10">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <v>96</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>224</v>
+      </c>
+      <c r="E11">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>256</v>
+      </c>
+      <c r="E12">
+        <v>160</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>352</v>
+      </c>
+      <c r="E13">
+        <v>160</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>416</v>
+      </c>
+      <c r="E14">
+        <v>128</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>448</v>
+      </c>
+      <c r="E15">
+        <v>160</v>
+      </c>
+      <c r="F15">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>480</v>
+      </c>
+      <c r="E16">
+        <v>112</v>
+      </c>
+      <c r="F16">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>480</v>
+      </c>
+      <c r="E17">
+        <v>176</v>
+      </c>
+      <c r="F17">
+        <v>64</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>544</v>
+      </c>
+      <c r="E18">
+        <v>96</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>608</v>
+      </c>
+      <c r="E19">
+        <v>160</v>
+      </c>
+      <c r="F19">
+        <v>64</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>672</v>
+      </c>
+      <c r="E20">
+        <v>144</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>704</v>
+      </c>
+      <c r="E21">
+        <v>112</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>736</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>80</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>736</v>
+      </c>
+      <c r="E23">
+        <v>128</v>
+      </c>
+      <c r="F23">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>64</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>156</v>
+      </c>
+      <c r="E25">
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>220</v>
+      </c>
+      <c r="E26">
+        <v>128</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>284</v>
+      </c>
+      <c r="E27">
+        <v>128</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>348</v>
+      </c>
+      <c r="E28">
+        <v>128</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>412</v>
+      </c>
+      <c r="E29">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>476</v>
+      </c>
+      <c r="E30">
+        <v>144</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>540</v>
+      </c>
+      <c r="E31">
+        <v>144</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>604</v>
+      </c>
+      <c r="E32">
+        <v>128</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>668</v>
+      </c>
+      <c r="E33">
+        <v>128</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>732</v>
+      </c>
+      <c r="E34">
+        <v>80</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>56</v>
+      </c>
+      <c r="E36">
+        <v>159.5</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>56</v>
+      </c>
+      <c r="E37">
+        <v>114</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>120</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>376</v>
+      </c>
+      <c r="E39">
+        <v>159</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>408</v>
+      </c>
+      <c r="E40">
+        <v>82</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>632</v>
+      </c>
+      <c r="E41">
+        <v>159</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>568</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>102</v>
+      </c>
+      <c r="E44">
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <v>200</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>272</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>-1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>416</v>
+      </c>
+      <c r="E46">
+        <v>80</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>-1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>464</v>
+      </c>
+      <c r="E47">
+        <v>48</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>-1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>368</v>
+      </c>
+      <c r="E48">
+        <v>127.9</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>-1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>80</v>
+      </c>
+      <c r="E50">
+        <v>192</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>88</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>752</v>
+      </c>
+      <c r="E51">
+        <v>80</v>
+      </c>
+      <c r="F51">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <v>48</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>40</v>
+      </c>
+      <c r="L51">
+        <v>48</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C37FE-D42F-463F-9AF9-22C88E57EFD8}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>112</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>176</v>
+      </c>
+      <c r="F8">
+        <v>256</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>128</v>
+      </c>
+      <c r="E9">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>176</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10">
+        <v>176</v>
+      </c>
+      <c r="F10">
+        <v>256</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>512</v>
+      </c>
+      <c r="E11">
+        <v>176</v>
+      </c>
+      <c r="F11">
+        <v>256</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>760</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>176</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>672</v>
+      </c>
+      <c r="E13">
+        <v>144</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>720</v>
+      </c>
+      <c r="E14">
+        <v>112</v>
+      </c>
+      <c r="F14">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>112</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>156</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>220</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>284</v>
+      </c>
+      <c r="E20">
+        <v>144</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>348</v>
+      </c>
+      <c r="E21">
+        <v>112</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>412</v>
+      </c>
+      <c r="E22">
+        <v>144</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>476</v>
+      </c>
+      <c r="E23">
+        <v>144</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>540</v>
+      </c>
+      <c r="E24">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>604</v>
+      </c>
+      <c r="E25">
+        <v>144</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>668</v>
+      </c>
+      <c r="E26">
+        <v>112</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>732</v>
+      </c>
+      <c r="E27">
+        <v>112</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>688</v>
+      </c>
+      <c r="E28">
+        <v>144</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>104</v>
+      </c>
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>136</v>
+      </c>
+      <c r="E31">
+        <v>111</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>296</v>
+      </c>
+      <c r="E32">
+        <v>66</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>360</v>
+      </c>
+      <c r="E33">
+        <v>175</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>712</v>
+      </c>
+      <c r="E34">
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>680</v>
+      </c>
+      <c r="E35">
+        <v>143</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
+      </c>
+      <c r="E37">
+        <v>79</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>240</v>
+      </c>
+      <c r="E38">
+        <v>79</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>550</v>
+      </c>
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>